--- a/Experiments/RQ1/topologies&flows.xlsx
+++ b/Experiments/RQ1/topologies&flows.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannali/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jannali/Documents/GenAdapt/Experiments/RQ1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B4BA6F-1F31-E04A-9FEF-195F6003F76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7E5B88-C8BF-8C45-A6AA-0757B1A1679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="5540" windowWidth="21940" windowHeight="15120" xr2:uid="{F49E9AD5-C56F-514F-B0C7-F17F9D3EAD0B}"/>
+    <workbookView xWindow="13420" yWindow="3240" windowWidth="21940" windowHeight="15120" xr2:uid="{F49E9AD5-C56F-514F-B0C7-F17F9D3EAD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="full5-topology" sheetId="3" r:id="rId1"/>
@@ -69,15 +69,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bandwidth=100, delay=25ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>green line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bandwidth=10, delay=275ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -233,10 +225,6 @@
     <t>h8</t>
   </si>
   <si>
-    <t>bandwidth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>h7</t>
   </si>
   <si>
@@ -277,10 +265,6 @@
   </si>
   <si>
     <t>s2</t>
-  </si>
-  <si>
-    <t>start time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>h12</t>
@@ -337,6 +321,22 @@
   </si>
   <si>
     <t>mnp-5-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bandwidth=100Mbps, delay=25ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bandwidth=10Mbps, delay=275ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start time(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bandwidth(Mbps)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,14 +483,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,15 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9786,11 +9786,11 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="1524000" y="2362200"/>
-          <a:ext cx="1885950" cy="1301750"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
+        <a:xfrm flipH="1">
+          <a:off x="990600" y="2070100"/>
+          <a:ext cx="1301750" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -9803,60 +9803,6 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>96285</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>179924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>475215</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>150276</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直线连接符 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8FC10B-0C86-6143-B948-9CB312F03F5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="8" idx="7"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1747285" y="2008724"/>
-          <a:ext cx="1204430" cy="1799152"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -10556,7 +10502,7 @@
   <dimension ref="A16:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10566,7 +10512,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -10581,47 +10527,51 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>62</v>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>78</v>
+      <c r="A2" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3">
         <v>38</v>
@@ -10631,18 +10581,18 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3">
         <v>38</v>
@@ -10652,18 +10602,18 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3">
         <v>38</v>
@@ -10673,18 +10623,18 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3">
         <v>38</v>
@@ -10694,18 +10644,18 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3">
         <v>38</v>
@@ -10715,18 +10665,18 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F7" s="3">
         <v>38</v>
@@ -10749,44 +10699,44 @@
   <dimension ref="A6:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="6" spans="11:11">
-      <c r="K6" s="13"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="11:11">
-      <c r="K7" s="13"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="11:11">
-      <c r="K8" s="13"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="11:11">
-      <c r="K9" s="13"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="11:11">
-      <c r="K10" s="13"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="11:11">
-      <c r="K11" s="13"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="11:11">
-      <c r="K12" s="13"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="11:11">
-      <c r="K13" s="13"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="11:11">
-      <c r="K14" s="13"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -10801,47 +10751,51 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>62</v>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>78</v>
+      <c r="A2" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3">
         <v>38</v>
@@ -10851,18 +10805,18 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3">
         <v>38</v>
@@ -10872,18 +10826,18 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3">
         <v>38</v>
@@ -10893,18 +10847,18 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3">
         <v>38</v>
@@ -10914,18 +10868,18 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3">
         <v>38</v>
@@ -10935,18 +10889,18 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F7" s="3">
         <v>38</v>
@@ -10956,44 +10910,44 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3">
         <v>38</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="8">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3">
         <v>38</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="8">
         <v>30</v>
       </c>
     </row>
@@ -11011,33 +10965,33 @@
   <dimension ref="A24:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -11045,15 +10999,15 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -11068,7 +11022,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11076,453 +11030,453 @@
     <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>34</v>
+      <c r="A3" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
-        <v>38</v>
+      <c r="A15" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>39</v>
+      <c r="A20" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10"/>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10"/>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -11544,47 +11498,51 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>62</v>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>65</v>
+      <c r="A2" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3">
         <v>25</v>
@@ -11594,18 +11552,18 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3">
         <v>25</v>
@@ -11615,18 +11573,18 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3">
         <v>25</v>
@@ -11636,18 +11594,18 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3">
         <v>25</v>
@@ -11657,18 +11615,18 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3">
         <v>25</v>
@@ -11678,18 +11636,18 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F7" s="3">
         <v>25</v>
@@ -11699,18 +11657,18 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3">
         <v>25</v>
@@ -11720,18 +11678,18 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3">
         <v>25</v>
@@ -11741,18 +11699,18 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3">
         <v>25</v>
@@ -11762,18 +11720,18 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3">
         <v>25</v>
@@ -11783,18 +11741,18 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3">
         <v>25</v>
@@ -11804,18 +11762,18 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3">
         <v>25</v>
@@ -11825,20 +11783,20 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8" t="s">
-        <v>68</v>
+      <c r="A14" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3">
         <v>19</v>
@@ -11848,18 +11806,18 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3">
         <v>19</v>
@@ -11869,18 +11827,18 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3">
         <v>19</v>
@@ -11890,18 +11848,18 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="9"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3">
         <v>19</v>
@@ -11911,18 +11869,18 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3">
         <v>19</v>
@@ -11932,18 +11890,18 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F19" s="3">
         <v>19</v>
@@ -11953,18 +11911,18 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3">
         <v>19</v>
@@ -11974,18 +11932,18 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3">
         <v>19</v>
@@ -11995,18 +11953,18 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="9"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3">
         <v>19</v>
@@ -12016,18 +11974,18 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="9"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3">
         <v>19</v>
@@ -12037,18 +11995,18 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="9"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F24" s="3">
         <v>19</v>
@@ -12058,18 +12016,18 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="9"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3">
         <v>19</v>
@@ -12079,18 +12037,18 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="9"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3">
         <v>19</v>
@@ -12100,18 +12058,18 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F27" s="3">
         <v>19</v>
@@ -12121,18 +12079,18 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F28" s="3">
         <v>19</v>
@@ -12142,18 +12100,18 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="10"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F29" s="3">
         <v>19</v>
@@ -12177,7 +12135,7 @@
   <dimension ref="A19:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12187,7 +12145,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -12202,47 +12160,51 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>62</v>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>69</v>
+      <c r="A2" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3">
         <v>25</v>
@@ -12252,18 +12214,18 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3">
         <v>25</v>
@@ -12273,18 +12235,18 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3">
         <v>25</v>
@@ -12294,18 +12256,18 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3">
         <v>25</v>
@@ -12315,18 +12277,18 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3">
         <v>25</v>
@@ -12336,18 +12298,18 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F7" s="3">
         <v>25</v>
@@ -12357,18 +12319,18 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3">
         <v>25</v>
@@ -12378,18 +12340,18 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3">
         <v>25</v>
@@ -12399,18 +12361,18 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3">
         <v>25</v>
@@ -12420,18 +12382,18 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3">
         <v>25</v>
@@ -12441,18 +12403,18 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3">
         <v>25</v>
@@ -12462,18 +12424,18 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3">
         <v>25</v>
@@ -12483,18 +12445,18 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3">
         <v>25</v>
@@ -12504,18 +12466,18 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3">
         <v>25</v>
@@ -12525,18 +12487,18 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3">
         <v>25</v>
@@ -12546,20 +12508,20 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="8" t="s">
-        <v>70</v>
+      <c r="A17" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3">
         <v>19</v>
@@ -12569,18 +12531,18 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3">
         <v>19</v>
@@ -12590,18 +12552,18 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3">
         <v>19</v>
@@ -12611,18 +12573,18 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3">
         <v>19</v>
@@ -12632,18 +12594,18 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3">
         <v>19</v>
@@ -12653,18 +12615,18 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="9"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F22" s="3">
         <v>19</v>
@@ -12674,18 +12636,18 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="9"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3">
         <v>19</v>
@@ -12695,18 +12657,18 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="9"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F24" s="3">
         <v>19</v>
@@ -12716,18 +12678,18 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="9"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3">
         <v>19</v>
@@ -12737,18 +12699,18 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="9"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3">
         <v>19</v>
@@ -12758,18 +12720,18 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F27" s="3">
         <v>19</v>
@@ -12779,18 +12741,18 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="9"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F28" s="3">
         <v>19</v>
@@ -12800,18 +12762,18 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="9"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F29" s="3">
         <v>19</v>
@@ -12821,18 +12783,18 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="9"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F30" s="3">
         <v>19</v>
@@ -12842,18 +12804,18 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="9"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31" s="3">
         <v>19</v>
@@ -12863,18 +12825,18 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="9"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F32" s="3">
         <v>19</v>
@@ -12884,18 +12846,18 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F33" s="3">
         <v>19</v>
@@ -12905,18 +12867,18 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="9"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F34" s="3">
         <v>19</v>
@@ -12926,18 +12888,18 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="9"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F35" s="3">
         <v>19</v>
@@ -12947,18 +12909,18 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="10"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F36" s="3">
         <v>19</v>
@@ -12983,7 +12945,7 @@
   <dimension ref="A19:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12993,7 +12955,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -13008,47 +12970,51 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>62</v>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>74</v>
+      <c r="A2" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3">
         <v>37</v>
@@ -13058,18 +13024,18 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3">
         <v>37</v>
@@ -13079,18 +13045,18 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3">
         <v>37</v>
@@ -13100,18 +13066,18 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3">
         <v>37</v>
@@ -13121,18 +13087,18 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3">
         <v>37</v>
@@ -13142,18 +13108,18 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F7" s="3">
         <v>37</v>
@@ -13163,18 +13129,18 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3">
         <v>37</v>
@@ -13184,18 +13150,18 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3">
         <v>37</v>
@@ -13205,18 +13171,18 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3">
         <v>37</v>
@@ -13226,18 +13192,18 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3">
         <v>37</v>
@@ -13247,18 +13213,18 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3">
         <v>37</v>
@@ -13268,18 +13234,18 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3">
         <v>37</v>
@@ -13289,20 +13255,20 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>75</v>
+      <c r="A14" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3">
         <v>25</v>
@@ -13312,18 +13278,18 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3">
         <v>25</v>
@@ -13333,18 +13299,18 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3">
         <v>25</v>
@@ -13354,18 +13320,18 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3">
         <v>25</v>
@@ -13375,18 +13341,18 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3">
         <v>25</v>
@@ -13396,18 +13362,18 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F19" s="3">
         <v>25</v>
@@ -13417,18 +13383,18 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3">
         <v>25</v>
@@ -13438,18 +13404,18 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3">
         <v>25</v>
@@ -13459,18 +13425,18 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3">
         <v>25</v>
@@ -13480,18 +13446,18 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3">
         <v>25</v>
@@ -13501,18 +13467,18 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F24" s="3">
         <v>25</v>
@@ -13522,18 +13488,18 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3">
         <v>25</v>
@@ -13557,7 +13523,7 @@
   <dimension ref="A25:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13567,7 +13533,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -13582,47 +13548,51 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G29"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>62</v>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>76</v>
+      <c r="A2" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3">
         <v>35</v>
@@ -13632,18 +13602,18 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3">
         <v>35</v>
@@ -13653,18 +13623,18 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3">
         <v>35</v>
@@ -13674,18 +13644,18 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3">
         <v>35</v>
@@ -13695,18 +13665,18 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3">
         <v>35</v>
@@ -13716,18 +13686,18 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F7" s="3">
         <v>35</v>
@@ -13737,18 +13707,18 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3">
         <v>35</v>
@@ -13758,18 +13728,18 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3">
         <v>35</v>
@@ -13779,18 +13749,18 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3">
         <v>35</v>
@@ -13800,18 +13770,18 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3">
         <v>35</v>
@@ -13821,18 +13791,18 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3">
         <v>35</v>
@@ -13842,18 +13812,18 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3">
         <v>35</v>
@@ -13863,20 +13833,20 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>77</v>
+      <c r="A14" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="3">
         <v>35</v>
@@ -13886,18 +13856,18 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3">
         <v>35</v>
@@ -13907,18 +13877,18 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="3">
         <v>35</v>
@@ -13928,18 +13898,18 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3">
         <v>35</v>
@@ -13949,18 +13919,18 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3">
         <v>35</v>
@@ -13970,18 +13940,18 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F19" s="3">
         <v>35</v>
@@ -13991,18 +13961,18 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3">
         <v>35</v>
@@ -14012,18 +13982,18 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3">
         <v>35</v>
@@ -14033,18 +14003,18 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3">
         <v>35</v>
@@ -14054,18 +14024,18 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3">
         <v>35</v>
@@ -14075,18 +14045,18 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F24" s="3">
         <v>35</v>
@@ -14096,18 +14066,18 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3">
         <v>35</v>
@@ -14117,18 +14087,18 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F26" s="3">
         <v>35</v>
@@ -14138,18 +14108,18 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="5"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E27" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F27" s="3">
         <v>35</v>
@@ -14159,18 +14129,18 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F28" s="3">
         <v>35</v>
@@ -14180,18 +14150,18 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F29" s="3">
         <v>35</v>
@@ -14216,7 +14186,7 @@
   <dimension ref="A14:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14226,7 +14196,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
